--- a/Luban/Configs/Datas/t_monster_refresh.xlsx
+++ b/Luban/Configs/Datas/t_monster_refresh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D55A11-3094-4558-A6E7-F81355BDC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A461CF-2263-472D-9C82-313FC46EAB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="2550" windowWidth="22545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -561,7 +561,7 @@
         <v>50</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
